--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2088.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2088.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.792881459857498</v>
+        <v>2.847326993942261</v>
       </c>
       <c r="B1">
-        <v>3.557716594226569</v>
+        <v>3.084224939346313</v>
       </c>
       <c r="C1">
-        <v>3.166557274127316</v>
+        <v>2.711798667907715</v>
       </c>
       <c r="D1">
-        <v>3.483308989263518</v>
+        <v>2.948814392089844</v>
       </c>
       <c r="E1">
-        <v>1.82231524500715</v>
+        <v>2.697418928146362</v>
       </c>
     </row>
   </sheetData>
